--- a/input_xlsx/Flora_014.xlsx
+++ b/input_xlsx/Flora_014.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\TAMBORA\flora\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBF0DA82-A7BF-463F-AFEF-241A496960A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,13 +27,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CD98E0A5-3498-464D-8C1F-A0E35C7CE151}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B62A1221-E2EF-4626-A002-493B3C61FEF9}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3F3BB270-74F1-4DCB-B8B5-71EBB6C85A4C}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -787,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -831,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{296C6269-92AD-4202-BA90-ADA4FA29AB61}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{3ED38722-4F9B-4031-863A-CC37137E1DB2}">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,13 +898,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -998,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1184,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CBD564F0-F558-411F-9EA6-B347A9C3AF66}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1448,7 +1442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1492,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1580,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1624,7 +1618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{94D49537-4BE7-4234-BC89-0F660595960E}">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,13 +1647,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{36AAAF2B-60DB-4D04-A886-FCFB68D4557C}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1703,7 +1697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5855233F-3735-4892-B9ED-9E8A494DD76A}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1747,7 +1741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{654440DE-876B-46A0-AD15-F6A1DB049347}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1791,7 +1785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9C17C331-E974-4CC2-87EF-BF0DE1E2FBE1}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A2A38E94-5E62-46F5-BF6D-82257421DB5D}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7DD737BE-C816-4739-81DA-E2164ADBEC35}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1923,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{397DE40C-8F94-4168-B2C9-39AE2BDEAD84}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1967,7 +1961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{82624C0C-C579-47F5-B3CC-8570BE7C1321}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2011,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C7C77C63-8193-4F82-AEC0-0727572A49AD}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2055,7 +2049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{E14C9CF2-28E1-4DAE-932B-A79FD12BBA60}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2084,12 +2078,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A9AD44FF-D45C-4CF7-8D68-1F16CECDC920}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2133,7 +2127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EA51D073-7D69-4871-BBDD-42ACFD92F7EF}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2202,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2281CE55-2B75-44E9-B998-E323939D1033}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2246,7 +2240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{30A37606-FB54-415C-BC94-2ADDE96B908F}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2290,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F05604D2-DAE8-4B31-BC64-2DB4383D2D2A}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4D4B6592-D3BE-48AA-887F-614FC81C00AA}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2378,7 +2372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D4DD68B5-C1F0-406C-89E1-176B6CFEE35A}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2422,7 +2416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D52C51D3-943B-4902-B5FE-D5D765B0EAB6}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2764,8 +2758,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2844,14 +2838,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2862,18 +2848,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Open Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2955,7 +2929,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3046,9 +3020,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -3058,23 +3031,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="90"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="90">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3163,7 +3126,6 @@
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -3501,37 +3463,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.58203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="15" width="13.5" customWidth="1"/>
     <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3593,7 +3555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3618,10 +3580,10 @@
       <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M2" t="s">
@@ -3649,7 +3611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -3674,10 +3636,10 @@
       <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M3" t="s">
@@ -3705,7 +3667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3730,10 +3692,10 @@
       <c r="H4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M4" t="s">
@@ -3761,35 +3723,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3802,35 +3764,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="83.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3883,672 +3845,372 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1">
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>4</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="10" customFormat="1">
+    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>2</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="10" customFormat="1">
+    <row r="4" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>4</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="10" customFormat="1">
+    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="11">
         <v>8</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="10" customFormat="1">
+    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="11">
         <v>5</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="11">
         <v>4</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="17" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="11">
         <v>5</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="17" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="11">
         <v>3</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="17" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="17"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="17"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="6:17">
-      <c r="F17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="6:17">
-      <c r="F18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="6:17">
-      <c r="F19" s="9"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="6:17">
-      <c r="F20" s="9"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="6:17">
-      <c r="F21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="6:17">
-      <c r="F22" s="9"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="13"/>
-      <c r="Q22">
-        <f>+Q25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17">
-      <c r="F23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="6:17">
-      <c r="F24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="6:17">
-      <c r="F25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="6:17">
-      <c r="F26" s="9"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="6:17">
-      <c r="F27" s="9"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="6:17">
-      <c r="F28" s="9"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="6:17">
-      <c r="F29" s="9"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="6:17">
-      <c r="F30" s="9"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="6:17">
-      <c r="F31" s="9"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="6:17">
-      <c r="F32" s="9"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="6:10">
-      <c r="F33" s="9"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="6:10">
-      <c r="F34" s="9"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="6:10">
-      <c r="F35" s="9"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="6:10">
-      <c r="I36" s="12"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="6:10">
-      <c r="I37" s="12"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="6:10">
-      <c r="I38" s="12"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="6:10">
-      <c r="I39" s="12"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="6:10">
-      <c r="I40" s="12"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="6:10">
-      <c r="I41" s="12"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="6:10">
-      <c r="I42" s="12"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="6:10">
-      <c r="I43" s="12"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="6:10">
-      <c r="I44" s="12"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="6:10">
-      <c r="I45" s="12"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="6:10">
-      <c r="I46" s="12"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="6:10">
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="6:10">
-      <c r="I48" s="12"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="9:10">
-      <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="9:10">
-      <c r="I50" s="12"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="9:10">
-      <c r="I51" s="12"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="9:10">
-      <c r="I52" s="12"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="9:10">
-      <c r="I53" s="12"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="9:10">
-      <c r="I54" s="12"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="9:10">
-      <c r="I55" s="12"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="9:10">
-      <c r="I56" s="12"/>
-      <c r="J56" s="11"/>
+      <c r="Q9" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4561,7 +4223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4569,21 +4231,21 @@
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4615,7 +4277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4643,7 +4305,7 @@
       <c r="J2" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4651,27 +4313,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
